--- a/front/ajouton/public/myExcel.xlsx
+++ b/front/ajouton/public/myExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-yonghun/Desktop/ajouton/front/ajouton/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyounsuekim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616E8F8B-9B5A-FE44-9E2C-FD4EC35B9578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3921D68-1C29-E049-B66A-13D91B030E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{A9F32A3C-1944-1044-BA1E-29A3301BA394}"/>
+    <workbookView xWindow="20560" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{1F527A2C-90B0-FE4E-BDA4-6A31D5BD1279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>하이</t>
-  </si>
-  <si>
-    <t>바이</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">다음 칸에 튜티들의 학번과 이름, 이메일을 형식에 맞춰 집어넣고 저장해주세요.  
+그 뒤 해당 엑셀 파일을 업로드해주시면 서버가 자동으로 처리할 수 있습니다! </t>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>hongildong@ajou.ac.kr</t>
+  </si>
+  <si>
+    <t>아무개</t>
+  </si>
+  <si>
+    <t>amugae@ajou.ac.kr</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <t>chulsoo@ajou.ac.kr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,16 +81,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -73,14 +112,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,24 +514,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC8E73C-10FF-8642-B434-4B3052E12A69}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9322D0-B8DC-154E-95BC-678B326660D0}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>202020000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>202120000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>202220000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{855BE376-2BD4-2040-8C50-9CC10FEB50D9}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{620C9C67-A381-BD41-96A5-7D042AD03390}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{5E3BFB44-0106-E145-A78A-294956E773FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>